--- a/c5dec/assets/etr/etr_template/chapters/input/tables.xlsx
+++ b/c5dec/assets/etr/etr_template/chapters/input/tables.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arash/Development/alab/gitlab/cyfort/c5dec/cad/c5dec/assets/etr/etr_template/chapters/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF96B06C-7D00-8248-91E4-883A5C53536B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7745D71-8BBA-CB4E-9E23-0FD7EBA18EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="733" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DocStruct" sheetId="40" r:id="rId1"/>
     <sheet name="Acronyms" sheetId="42" r:id="rId2"/>
     <sheet name="Glossary" sheetId="41" r:id="rId3"/>
+    <sheet name="EvalOverviewPP" sheetId="43" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="117">
   <si>
     <t>Term</t>
   </si>
@@ -301,16 +302,88 @@
     <t>Work Breakdown Structure</t>
   </si>
   <si>
-    <t>@sec-analysis</t>
-  </si>
-  <si>
-    <t>Describes…</t>
-  </si>
-  <si>
-    <t>@sec-summary</t>
-  </si>
-  <si>
-    <t>Briefly describes…</t>
+    <t>@sec-method</t>
+  </si>
+  <si>
+    <t>Describes the adopted evaluation methodology and the type of required documentation.</t>
+  </si>
+  <si>
+    <t>@sec-objectives</t>
+  </si>
+  <si>
+    <t>Briefly describes the overall evaluation objectives and any dependencies, whenever applicable.</t>
+  </si>
+  <si>
+    <t>@sec-detailedEv</t>
+  </si>
+  <si>
+    <t>Gives a detailed breakdown of the evaluation results, containing evaluation work units, in turn broken down into concrete audit actions.</t>
+  </si>
+  <si>
+    <t>@sec-evalResults</t>
+  </si>
+  <si>
+    <t>Provides a summary of the overall assessment and verdict.</t>
+  </si>
+  <si>
+    <t>{{&lt; var chapter.chp6 &gt;}}</t>
+  </si>
+  <si>
+    <t>{{&lt; var chapter.chp5 &gt;}}</t>
+  </si>
+  <si>
+    <t>Evaluation work unit</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Pass count</t>
+  </si>
+  <si>
+    <t>Fail count</t>
+  </si>
+  <si>
+    <t>Score (pass/total)</t>
+  </si>
+  <si>
+    <t>ALC_CMC.1-1</t>
+  </si>
+  <si>
+    <t>\inclsv{Inconclusive}</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>ALC_CMC.1-2</t>
+  </si>
+  <si>
+    <t>\pass{Pass}</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>ALC_CMC.4-1</t>
+  </si>
+  <si>
+    <t>ALC_DVS.1-2</t>
+  </si>
+  <si>
+    <t>\fail{Fail}</t>
+  </si>
+  <si>
+    <t>AVA_VAN.4-10</t>
+  </si>
+  <si>
+    <t>AVA_VAN.4-11</t>
+  </si>
+  <si>
+    <t>AVA_VAN.4-12</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -2256,8 +2329,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{834A43DC-8F5E-D14F-BFA1-E9745B9D1593}" name="Table4" displayName="Table4" ref="A1:C5">
-  <autoFilter ref="A1:C5" xr:uid="{834A43DC-8F5E-D14F-BFA1-E9745B9D1593}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{834A43DC-8F5E-D14F-BFA1-E9745B9D1593}" name="Table4" displayName="Table4" ref="A1:C7">
+  <autoFilter ref="A1:C7" xr:uid="{834A43DC-8F5E-D14F-BFA1-E9745B9D1593}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B3">
     <sortCondition ref="A1:A3"/>
   </sortState>
@@ -2290,6 +2363,20 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1904DC0C-5151-1F4D-97E0-ABC56FE37928}" name="Term"/>
     <tableColumn id="2" xr3:uid="{BCF0B47B-B2F3-C349-84CA-EFF70A5372EB}" name="Meaning" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="Table_C" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{01E4BF55-9D1D-5C4D-AD1C-2A3E4AD36743}" name="Table2" displayName="Table2" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{01E4BF55-9D1D-5C4D-AD1C-2A3E4AD36743}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{AD9AF8E9-E036-D743-AE89-E760182EADBC}" name="Evaluation work unit" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{25571EBB-6272-984A-B701-3478A8E20A5C}" name="Result"/>
+    <tableColumn id="3" xr3:uid="{EC2A8A5C-6BA7-BF44-ADF8-EE521EFCE00E}" name="Pass count" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{973EE7FD-4C37-4347-9444-940FA5665286}" name="Fail count" totalsRowFunction="sum"/>
+    <tableColumn id="5" xr3:uid="{2E1D9B78-8E97-C044-A178-1B333BD36EB1}" name="Score (pass/total)"/>
   </tableColumns>
   <tableStyleInfo name="Table_C" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2499,9 +2586,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F368BF48-A727-494D-AEC6-42AC77FE412B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="270" zoomScaleNormal="270" workbookViewId="0">
+    <sheetView zoomScale="270" zoomScaleNormal="270" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2562,12 +2649,34 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2946,4 +3055,177 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45632209-FEAF-4249-9669-DCF79B74E18A}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9">
+        <f>SUBTOTAL(109,Table2[Pass count])</f>
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <f>SUBTOTAL(109,Table2[Fail count])</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>